--- a/db/AiCity-87-FinancialWebsite.xlsx
+++ b/db/AiCity-87-FinancialWebsite.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.8_FinTech/FinTech-Investment/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CF8A9B-F7C8-2445-BF2C-4BD33D05DBEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7079DB-DE77-A246-B353-B7FC9A8F7EB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="4500" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20240" yWindow="7580" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>https://www.taishinbank.com.tw/TSB/personal/</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -349,6 +349,22 @@
   </si>
   <si>
     <t>fig/INV-3011-Bank-元大證劵.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>304</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中華民國退休基金協會</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/INV-3013-Magazine-退休基金.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pension.org.tw/index.php/2018-10-03-15-11-09/2019-02-13-00-01-00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -728,13 +744,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1065,6 +1081,23 @@
         <v>61</v>
       </c>
       <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1092,6 +1125,7 @@
     <hyperlink ref="D14" r:id="rId11" xr:uid="{72177DED-5893-B94C-B83E-17819C8FD397}"/>
     <hyperlink ref="D10" r:id="rId12" xr:uid="{51F70D59-990A-E64C-AC1B-3DD9C8D60991}"/>
     <hyperlink ref="D5" r:id="rId13" xr:uid="{F6076A74-88FC-2A4F-9C6A-1F5A096C705E}"/>
+    <hyperlink ref="D20" r:id="rId14" xr:uid="{EE6720B0-AFC0-CA41-B1B7-48FDA8B34FBC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-87-FinancialWebsite.xlsx
+++ b/db/AiCity-87-FinancialWebsite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7079DB-DE77-A246-B353-B7FC9A8F7EB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B9D9B-36CB-5F4E-8182-E8DE217D31BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20240" yWindow="7580" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8440" yWindow="7580" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -747,10 +747,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1098,7 +1098,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-87-FinancialWebsite.xlsx
+++ b/db/AiCity-87-FinancialWebsite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B9D9B-36CB-5F4E-8182-E8DE217D31BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7474C26-781E-5C4D-8434-0B5EC6A4E7D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8440" yWindow="7580" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>https://www.taishinbank.com.tw/TSB/personal/</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -365,6 +365,21 @@
   </si>
   <si>
     <t>https://www.pension.org.tw/index.php/2018-10-03-15-11-09/2019-02-13-00-01-00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>錢管家- Money錢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/INV-3013-Magazine-Money錢.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.moneynet.com.tw/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -434,13 +449,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -744,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
@@ -1098,7 +1115,24 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1106,9 +1140,12 @@
     <sortCondition ref="A2:A20"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{B6A4967F-A3DD-9142-986A-3AC4BF5BDC9F}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22:E1048576 E1:E20" xr:uid="{B6A4967F-A3DD-9142-986A-3AC4BF5BDC9F}">
       <formula1>$E$2:$E$19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21" xr:uid="{F7BF2D6E-5633-A140-B778-86A6E9245256}">
+      <formula1>$E$2:$E$20</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1126,6 +1163,7 @@
     <hyperlink ref="D10" r:id="rId12" xr:uid="{51F70D59-990A-E64C-AC1B-3DD9C8D60991}"/>
     <hyperlink ref="D5" r:id="rId13" xr:uid="{F6076A74-88FC-2A4F-9C6A-1F5A096C705E}"/>
     <hyperlink ref="D20" r:id="rId14" xr:uid="{EE6720B0-AFC0-CA41-B1B7-48FDA8B34FBC}"/>
+    <hyperlink ref="D21" r:id="rId15" xr:uid="{A1D685D6-89C6-FE47-A7B4-5F731490770D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>
